--- a/output/endemo2_industry_coefficients_per_capita.xlsx
+++ b/output/endemo2_industry_coefficients_per_capita.xlsx
@@ -1731,7 +1731,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(2018.0, 0.0)</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -1741,10 +1741,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>12.42</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="I34" t="n">
         <v>-0.01</v>
@@ -6056,13 +6056,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.38</v>
+        <v>-0.91</v>
       </c>
       <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>-0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -6094,13 +6094,13 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>-16.14</v>
+        <v>74.25</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="J5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -6126,13 +6126,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3</v>
+        <v>0.98</v>
       </c>
       <c r="I6" t="n">
         <v>-0</v>
@@ -6170,10 +6170,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>-14.19</v>
+        <v>-112.99</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="J7" t="n">
         <v>-0</v>
@@ -6208,7 +6208,7 @@
         <v>-0</v>
       </c>
       <c r="H8" t="n">
-        <v>-7.96</v>
+        <v>-8.970000000000001</v>
       </c>
       <c r="I8" t="n">
         <v>0.01</v>
@@ -6284,13 +6284,13 @@
         <v>-0</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.52</v>
+        <v>3.87</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -6316,19 +6316,19 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
         <v>-0</v>
       </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
       <c r="H11" t="n">
-        <v>-7.85</v>
+        <v>1.9</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01</v>
+        <v>-0</v>
       </c>
       <c r="J11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -6354,19 +6354,19 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
         <v>-0</v>
       </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
       <c r="H12" t="n">
-        <v>-1.57</v>
+        <v>0.59</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -6468,16 +6468,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>-0</v>
+        <v>-0.04</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.53</v>
+        <v>18.67</v>
       </c>
       <c r="I15" t="n">
-        <v>-0</v>
+        <v>-0.02</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -6588,7 +6588,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.54</v>
+        <v>3.92</v>
       </c>
       <c r="I18" t="n">
         <v>-0</v>
@@ -6626,7 +6626,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>-1.86</v>
+        <v>-1.73</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -6696,19 +6696,19 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.01</v>
+        <v>-0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>-30.16</v>
+        <v>191.17</v>
       </c>
       <c r="I21" t="n">
-        <v>0.03</v>
+        <v>-0.19</v>
       </c>
       <c r="J21" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -6734,19 +6734,19 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.01</v>
+        <v>-0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.9</v>
+        <v>-1.51</v>
       </c>
       <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
         <v>-0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -6854,7 +6854,7 @@
         <v>-0</v>
       </c>
       <c r="H25" t="n">
-        <v>-1.61</v>
+        <v>-1.79</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -6930,10 +6930,10 @@
         <v>-0</v>
       </c>
       <c r="H27" t="n">
-        <v>-4.44</v>
+        <v>-8.51</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J27" t="n">
         <v>-0</v>
@@ -6988,7 +6988,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>(2018.0, 1.15645874983918e-05)</t>
+          <t>(2018.0, 1.1565663088379015e-05)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -7076,19 +7076,19 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.01</v>
+        <v>-0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>-1.83</v>
+        <v>1.95</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J31" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -7196,7 +7196,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>12.42</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="I34" t="n">
         <v>-0.01</v>
@@ -7413,19 +7413,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G4" t="n">
         <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.38</v>
+        <v>-0.91</v>
       </c>
       <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>-0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -7457,13 +7457,13 @@
         <v>-0</v>
       </c>
       <c r="H5" t="n">
-        <v>-16.14</v>
+        <v>74.25</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="J5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -7495,7 +7495,7 @@
         <v>-0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3</v>
+        <v>0.98</v>
       </c>
       <c r="I6" t="n">
         <v>-0</v>
@@ -7527,16 +7527,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.01</v>
+        <v>-0.11</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>-14.19</v>
+        <v>-112.99</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="J7" t="n">
         <v>-0</v>
@@ -7565,13 +7565,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="G8" t="n">
         <v>-0</v>
       </c>
       <c r="H8" t="n">
-        <v>-7.96</v>
+        <v>-8.970000000000001</v>
       </c>
       <c r="I8" t="n">
         <v>0.01</v>
@@ -7647,13 +7647,13 @@
         <v>-0</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.52</v>
+        <v>3.87</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -7679,19 +7679,19 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.01</v>
+        <v>0.04</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H11" t="n">
-        <v>-7.85</v>
+        <v>1.9</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01</v>
+        <v>-0</v>
       </c>
       <c r="J11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -7717,19 +7717,19 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="G12" t="n">
         <v>-0</v>
       </c>
       <c r="H12" t="n">
-        <v>-1.57</v>
+        <v>0.59</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -7831,16 +7831,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.01</v>
+        <v>-0.01</v>
       </c>
       <c r="G15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.53</v>
+        <v>18.67</v>
       </c>
       <c r="I15" t="n">
-        <v>-0</v>
+        <v>-0.02</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -7951,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.54</v>
+        <v>3.92</v>
       </c>
       <c r="I18" t="n">
         <v>-0</v>
@@ -7983,13 +7983,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="G19" t="n">
         <v>-0</v>
       </c>
       <c r="H19" t="n">
-        <v>-1.86</v>
+        <v>-1.73</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -8059,19 +8059,19 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G21" t="n">
         <v>-0</v>
       </c>
       <c r="H21" t="n">
-        <v>-30.16</v>
+        <v>191.17</v>
       </c>
       <c r="I21" t="n">
-        <v>0.03</v>
+        <v>-0.19</v>
       </c>
       <c r="J21" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -8103,13 +8103,13 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.9</v>
+        <v>-1.51</v>
       </c>
       <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
         <v>-0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -8211,13 +8211,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.01</v>
+        <v>-0.01</v>
       </c>
       <c r="G25" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>-1.61</v>
+        <v>-1.79</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -8287,16 +8287,16 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>-0</v>
       </c>
       <c r="H27" t="n">
-        <v>-4.44</v>
+        <v>-8.51</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J27" t="n">
         <v>-0</v>
@@ -8351,7 +8351,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>(2018.0, 0.00045155301091263385)</t>
+          <t>(2018.0, 0.0004515950085971429)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -8401,16 +8401,16 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.09</v>
+        <v>0.02</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H30" t="n">
-        <v>-4.16</v>
+        <v>-17.15</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="J30" t="n">
         <v>-0</v>
@@ -8439,19 +8439,19 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.01</v>
+        <v>-0.01</v>
       </c>
       <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="I31" t="n">
         <v>-0</v>
       </c>
-      <c r="H31" t="n">
-        <v>-1.83</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
       <c r="J31" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -8553,13 +8553,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>-0</v>
+        <v>-0.02</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>12.42</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="I34" t="n">
         <v>-0.01</v>
@@ -10139,19 +10139,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.38</v>
+        <v>-0.91</v>
       </c>
       <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>-0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -10215,13 +10215,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G6" t="n">
         <v>-0</v>
       </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
       <c r="H6" t="n">
-        <v>0.3</v>
+        <v>0.98</v>
       </c>
       <c r="I6" t="n">
         <v>-0</v>
@@ -10297,7 +10297,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>-7.96</v>
+        <v>-8.970000000000001</v>
       </c>
       <c r="I8" t="n">
         <v>0.01</v>
@@ -10367,19 +10367,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G10" t="n">
         <v>-0</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.52</v>
+        <v>3.87</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -10411,13 +10411,13 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-7.85</v>
+        <v>1.9</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01</v>
+        <v>-0</v>
       </c>
       <c r="J11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -10443,19 +10443,19 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
         <v>-0</v>
       </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
       <c r="H12" t="n">
-        <v>-1.57</v>
+        <v>0.59</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -10557,16 +10557,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>-0</v>
+        <v>-0.01</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.53</v>
+        <v>18.67</v>
       </c>
       <c r="I15" t="n">
-        <v>-0</v>
+        <v>-0.02</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -10671,13 +10671,13 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>-0</v>
+        <v>-0.02</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.54</v>
+        <v>3.92</v>
       </c>
       <c r="I18" t="n">
         <v>-0</v>
@@ -10709,13 +10709,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>-1.86</v>
+        <v>-1.73</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -10791,13 +10791,13 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>-30.16</v>
+        <v>191.17</v>
       </c>
       <c r="I21" t="n">
-        <v>0.03</v>
+        <v>-0.19</v>
       </c>
       <c r="J21" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -10829,13 +10829,13 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.9</v>
+        <v>-1.51</v>
       </c>
       <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
         <v>-0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -10943,7 +10943,7 @@
         <v>-0</v>
       </c>
       <c r="H25" t="n">
-        <v>-1.61</v>
+        <v>-1.79</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -11019,10 +11019,10 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>-4.44</v>
+        <v>-8.51</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J27" t="n">
         <v>-0</v>
@@ -11077,7 +11077,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>(2018.0, 0.0001281741781071758)</t>
+          <t>(2018.0, 0.0001281860992295341)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -11171,13 +11171,13 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>-1.83</v>
+        <v>1.95</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J31" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -11578,13 +11578,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3</v>
+        <v>0.98</v>
       </c>
       <c r="I6" t="n">
         <v>-0</v>
@@ -11660,7 +11660,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>-7.96</v>
+        <v>-8.970000000000001</v>
       </c>
       <c r="I8" t="n">
         <v>0.01</v>
@@ -11730,19 +11730,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="I10" t="n">
         <v>-0</v>
       </c>
-      <c r="H10" t="n">
-        <v>-0.52</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
       <c r="J10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -12148,19 +12148,19 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G21" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>-30.16</v>
+        <v>191.17</v>
       </c>
       <c r="I21" t="n">
-        <v>0.03</v>
+        <v>-0.19</v>
       </c>
       <c r="J21" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -12192,13 +12192,13 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.9</v>
+        <v>-1.51</v>
       </c>
       <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
         <v>-0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -12306,7 +12306,7 @@
         <v>-0</v>
       </c>
       <c r="H25" t="n">
-        <v>-1.61</v>
+        <v>-1.79</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -16960,13 +16960,13 @@
         <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.38</v>
+        <v>-0.91</v>
       </c>
       <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>-0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -17030,13 +17030,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
         <v>-0</v>
       </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
       <c r="H6" t="n">
-        <v>0.3</v>
+        <v>0.98</v>
       </c>
       <c r="I6" t="n">
         <v>-0</v>
@@ -17074,10 +17074,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>-14.19</v>
+        <v>-112.99</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="J7" t="n">
         <v>-0</v>
@@ -17112,7 +17112,7 @@
         <v>-0</v>
       </c>
       <c r="H8" t="n">
-        <v>-7.96</v>
+        <v>-8.970000000000001</v>
       </c>
       <c r="I8" t="n">
         <v>0.01</v>
@@ -17188,13 +17188,13 @@
         <v>-0</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.52</v>
+        <v>3.87</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -17264,13 +17264,13 @@
         <v>-0</v>
       </c>
       <c r="H12" t="n">
-        <v>-1.57</v>
+        <v>0.59</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -17372,16 +17372,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>-0</v>
+        <v>-0.01</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.53</v>
+        <v>18.67</v>
       </c>
       <c r="I15" t="n">
-        <v>-0</v>
+        <v>-0.02</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -17486,13 +17486,13 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.54</v>
+        <v>3.92</v>
       </c>
       <c r="I18" t="n">
         <v>-0</v>
@@ -17530,7 +17530,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>-1.86</v>
+        <v>-1.73</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -17606,13 +17606,13 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>-30.16</v>
+        <v>191.17</v>
       </c>
       <c r="I21" t="n">
-        <v>0.03</v>
+        <v>-0.19</v>
       </c>
       <c r="J21" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -17644,13 +17644,13 @@
         <v>-0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.9</v>
+        <v>-1.51</v>
       </c>
       <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
         <v>-0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -17758,7 +17758,7 @@
         <v>-0</v>
       </c>
       <c r="H25" t="n">
-        <v>-1.61</v>
+        <v>-1.79</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -17834,10 +17834,10 @@
         <v>-0</v>
       </c>
       <c r="H27" t="n">
-        <v>-4.44</v>
+        <v>-8.51</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J27" t="n">
         <v>-0</v>
